--- a/Materiales.xlsx
+++ b/Materiales.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Aprendizaje\Cursos Actuales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\demoProyects\aprendisajeactual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F3EB30-48BF-49B0-BB53-E5980BBAB828}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E44384-5BCB-418A-94A4-2D464E1E8FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="23235" windowHeight="12555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,10 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -400,16 +396,16 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83984375" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.68359375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -417,7 +413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>100</v>
       </c>
@@ -425,7 +421,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>50</v>
       </c>
@@ -433,7 +429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>50</v>
       </c>
@@ -441,7 +437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>50</v>
       </c>
@@ -449,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>50</v>
       </c>
@@ -457,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2000</v>
       </c>
@@ -465,7 +461,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>800</v>
       </c>
@@ -473,7 +469,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>500</v>
       </c>
@@ -481,7 +477,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>500</v>
       </c>
@@ -489,7 +485,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>20</v>
       </c>
@@ -497,17 +493,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
